--- a/ExampleFiles/tasksActual.xlsx
+++ b/ExampleFiles/tasksActual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CDC3A1-E86D-48BD-A3A5-B4921DFCABCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0824DB-18BD-475C-AED6-DCE40C36B4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="6840" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,6 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,12 +139,19 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -169,8 +179,8 @@
     <tableColumn id="5" xr3:uid="{9730AFE1-7050-4486-AAC2-D57F321CD0FE}" name="Dependencies"/>
     <tableColumn id="6" xr3:uid="{4F1650EA-3E7F-4399-AF87-7E47471B2DD0}" name="Progress"/>
     <tableColumn id="10" xr3:uid="{382975DA-D7FF-432F-8137-D9137CB449F3}" name="InternalID"/>
-    <tableColumn id="8" xr3:uid="{5BBFF9E9-2FEF-4345-A69D-2BD4FCB45E41}" name="ActualStart"/>
-    <tableColumn id="9" xr3:uid="{80E11459-DD07-4C6C-BB72-E38B351AC460}" name="ActualEnd"/>
+    <tableColumn id="8" xr3:uid="{5BBFF9E9-2FEF-4345-A69D-2BD4FCB45E41}" name="ActualStart" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{80E11459-DD07-4C6C-BB72-E38B351AC460}" name="ActualEnd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -442,7 +452,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
